--- a/biology/Neurosciences/Éternuement/Éternuement.xlsx
+++ b/biology/Neurosciences/Éternuement/Éternuement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ternuement</t>
+          <t>Éternuement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'éternuement est une expiration brusque et bruyante, semi-autonome ou involontaire (réflexe au niveau cortical) par le nez et la bouche, provoquée par un mouvement subit et convulsif des muscles expirateurs (notamment les muscles intercostaux) en raison d'une irritation des muqueuses nasales ou de leur mise en contact avec un corps étranger. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ternuement</t>
+          <t>Éternuement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site du dictionnaire Larousse définit l'éternuement comme une « expulsion brusque et brutale de l'air par le nez et la bouche, provoquée par une excitation de la muqueuse des voies respiratoires supérieures »[1]. Le site du CNTRL reprend ces termes en précisant qu'il s'agit d'un « mouvement subit et convulsif des muscles respiratoires »[2].
-L'éternuement correspond donc à un mécanisme de défense de l'organisme et permet à chaque individu qui éternue d’expulser du nez des particules, des agents irritants ou des microbes qui pourraient causer une infection[3]. La sternutation en est le terme médical et désigne plus particulièrement une série d'éternuements à répétition[4]. On qualifie de sternutatoire ce qui provoque l'éternuement[5]. Certaines personnes ont tendance à éternuer en passant de l'ombre au soleil, ou quand elles regardent une source de lumière vive : on parle alors de réflexe photo-sternutatoire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site du dictionnaire Larousse définit l'éternuement comme une « expulsion brusque et brutale de l'air par le nez et la bouche, provoquée par une excitation de la muqueuse des voies respiratoires supérieures ». Le site du CNTRL reprend ces termes en précisant qu'il s'agit d'un « mouvement subit et convulsif des muscles respiratoires ».
+L'éternuement correspond donc à un mécanisme de défense de l'organisme et permet à chaque individu qui éternue d’expulser du nez des particules, des agents irritants ou des microbes qui pourraient causer une infection. La sternutation en est le terme médical et désigne plus particulièrement une série d'éternuements à répétition. On qualifie de sternutatoire ce qui provoque l'éternuement. Certaines personnes ont tendance à éternuer en passant de l'ombre au soleil, ou quand elles regardent une source de lumière vive : on parle alors de réflexe photo-sternutatoire.
 L'onomatopée française qui correspond à l'éternuement est « atchoum » (« achoo » en anglais, « hastschi » en allemand et « etciù » en italien.)
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ternuement</t>
+          <t>Éternuement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présenté comme un réflexe incontrôlable et brusque, l'éternuement concerne tout le monde, en tout lieu et à tout moment. La vitesse de l'expulsion des postillons (ou gouttelettes respiratoires) et autres corps depuis le nez et la bouche de la personne qui éternue a longtemps été estimée à une vitesse très rapide (supérieure à 350 km/h)[6]. En fait, cette vitesse est beaucoup plus basse, de l'ordre de 15,3 m/s, soit un maximum de 55 km/h[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présenté comme un réflexe incontrôlable et brusque, l'éternuement concerne tout le monde, en tout lieu et à tout moment. La vitesse de l'expulsion des postillons (ou gouttelettes respiratoires) et autres corps depuis le nez et la bouche de la personne qui éternue a longtemps été estimée à une vitesse très rapide (supérieure à 350 km/h). En fait, cette vitesse est beaucoup plus basse, de l'ordre de 15,3 m/s, soit un maximum de 55 km/h.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ternuement</t>
+          <t>Éternuement</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Généralement présentée comme une réaction normale de l'organisme, il existe plusieurs causes à l'éternuement, tel que le rhume (dit aussi rhume de cerveau, autrefois dénommé coryza) ou une rhinite allergique (dite aussi rhume des foins), plus rarement un état grippal[8] mais lorsqu'elle est plus ou moins répétée, cette réaction peut être liée à un encombrement nasal (poussières), à la présence d'un élément allergène (pollen, poils d'animaux), à un parfum ou une odeur trop forte, à une polypose nasale, ou à la lumière de forte intensité (dénommé réflexe photo-sternutatoire[9], dont la cause probable serait une anomalie congénitale touchant les signaux nerveux dans le noyau du cinquième nerf crânien appelé nerf trijumeau).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Généralement présentée comme une réaction normale de l'organisme, il existe plusieurs causes à l'éternuement, tel que le rhume (dit aussi rhume de cerveau, autrefois dénommé coryza) ou une rhinite allergique (dite aussi rhume des foins), plus rarement un état grippal mais lorsqu'elle est plus ou moins répétée, cette réaction peut être liée à un encombrement nasal (poussières), à la présence d'un élément allergène (pollen, poils d'animaux), à un parfum ou une odeur trop forte, à une polypose nasale, ou à la lumière de forte intensité (dénommé réflexe photo-sternutatoire, dont la cause probable serait une anomalie congénitale touchant les signaux nerveux dans le noyau du cinquième nerf crânien appelé nerf trijumeau).
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89ternuement</t>
+          <t>Éternuement</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,12 @@
           <t>Mesures d'hygiène et comportements-barrière</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inoffensif chez un individu en bonne santé, l'éternuement contribue à la propagation par la bouche et le nez de divers microbes aérotransportés via des gouttelettes infectieuses d'aérosol, notamment dans l'environnement et l'air intérieur[10]. Un éternuement peut projeter environ 40 000 gouttelettes jusqu'à 1 m de distance (gouttelettes d'une taille variant généralement de 0,5 à 5 µm)[11] . Un allergique ou un malade enrhumé ou grippé peut éternuer des dizaines de fois par heure sans pouvoir se laver les mains à chaque toux ou éternuement.Une pratique courante était de mettre la main devant la bouche quand on éternue ou tousse ; ce geste protège l'entourage immédiat des micro-gouttelettes chargées de virus[12] ou bactéries, dans l'instant, mais ces microbes expulsés sont alors abondamment présents sur la peau des mains. La recommandation d'utiliser les mains à cette fin est récemment tombée en désuétude[13] car inappropriée en termes d'hygiène : en effet les mains deviennent alors la principale source d'une contagion très efficace, via notamment les poignées de main, les poignées de portes, rampes d'escalier, la robinetterie...
-Les microbes sont ensuite facilement dispersés sur divers objets (qui deviennent alors des fomites). Tant que possible, il est donc maintenant recommandé de se moucher dans des mouchoirs en papier jetables (puis les jeter dans une poubelle appropriée), et de toujours éviter de se contaminer les mains en toussant ou éternuant dans le creux du coude, le bras plié devant soi dans les deux coudes, les deux bras croisés devant soi, les mains disposées sur les côtés (en arrière ou contre les épaules), sans non plus trop empêcher l'expulsion de l'air. Depuis le début de la pandémie de Covid-19, de nombreux gouvernements et instances nationales ont publié des fascicules sur ce sujet[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inoffensif chez un individu en bonne santé, l'éternuement contribue à la propagation par la bouche et le nez de divers microbes aérotransportés via des gouttelettes infectieuses d'aérosol, notamment dans l'environnement et l'air intérieur. Un éternuement peut projeter environ 40 000 gouttelettes jusqu'à 1 m de distance (gouttelettes d'une taille variant généralement de 0,5 à 5 µm) . Un allergique ou un malade enrhumé ou grippé peut éternuer des dizaines de fois par heure sans pouvoir se laver les mains à chaque toux ou éternuement.Une pratique courante était de mettre la main devant la bouche quand on éternue ou tousse ; ce geste protège l'entourage immédiat des micro-gouttelettes chargées de virus ou bactéries, dans l'instant, mais ces microbes expulsés sont alors abondamment présents sur la peau des mains. La recommandation d'utiliser les mains à cette fin est récemment tombée en désuétude car inappropriée en termes d'hygiène : en effet les mains deviennent alors la principale source d'une contagion très efficace, via notamment les poignées de main, les poignées de portes, rampes d'escalier, la robinetterie...
+Les microbes sont ensuite facilement dispersés sur divers objets (qui deviennent alors des fomites). Tant que possible, il est donc maintenant recommandé de se moucher dans des mouchoirs en papier jetables (puis les jeter dans une poubelle appropriée), et de toujours éviter de se contaminer les mains en toussant ou éternuant dans le creux du coude, le bras plié devant soi dans les deux coudes, les deux bras croisés devant soi, les mains disposées sur les côtés (en arrière ou contre les épaules), sans non plus trop empêcher l'expulsion de l'air. Depuis le début de la pandémie de Covid-19, de nombreux gouvernements et instances nationales ont publié des fascicules sur ce sujet.
 En contexte de risque contagieux, la période infectieuse étant difficile à situer précisément, embrasser, serrer les mains ou tout autre contact physique est à éviter, de même que fréquenter des lieux publics ou privés où se trouvent d'autres personnes ou approcher de trop près d'autres personnes sans masque (l'OMS recommande une distance minimale de 1 mètre et de se laver régulièrement les mains). Attention aussi aux contacts avec les objets potentiellement infectés. L'hygiaphone est devenu rare, Il est donc utile de tenir ses distances lorsque l'on doit s'adresser à quelqu'un. Ces comportements-barrière protègent l'individu et ceux qui vivent autour de lui.
 </t>
         </is>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89ternuement</t>
+          <t>Éternuement</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,9 +660,11 @@
           <t>Remèdes populaires pour contrer l'éternuement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont nombreux ; en voici quelques-uns dont l'efficacité reste à démontrer[15].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont nombreux ; en voici quelques-uns dont l'efficacité reste à démontrer.
 presser son palais avec sa langue sur la plus grande surface possible ;
 chatouiller son palais avec le bout de la langue ;
 fermer les yeux et poser ses doigts dessus ;
@@ -656,7 +678,7 @@
 réduire l'interaction avec les irritants/allergènes ;
 expirer profondément l'air dans les poumons juste avant d'éternuer, réduit le volume d'air chassé ;
 et tout simplement, bien se moucher.
-L'efficacité (relative) de ces méthodes reposerait sur différents moyens d'agir ou rétro-agir sur le système neurovégétatif (orthosympathique / parasympathique) impliqué dans le réflexe d'éternuement. Certaines personnes trouvent en outre agréable ou utile d'éternuer, et ne souhaitent pas s'en empêcher[16].
+L'efficacité (relative) de ces méthodes reposerait sur différents moyens d'agir ou rétro-agir sur le système neurovégétatif (orthosympathique / parasympathique) impliqué dans le réflexe d'éternuement. Certaines personnes trouvent en outre agréable ou utile d'éternuer, et ne souhaitent pas s'en empêcher.
 </t>
         </is>
       </c>
@@ -667,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89ternuement</t>
+          <t>Éternuement</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -685,11 +707,13 @@
           <t>Danger de se retenir d'éternuer</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs cas cliniques ont été rapportés dans la littérature médicale qui montrent qu’il peut être dangereux de réprimer un éternuement[17]. 
-Plusieurs études ont par ailleurs montré que la pression est d’autant plus élevée que l’on cherche à résister à l’expulsion de l’air lors d’un effort d'éternuement. Empêcher un éternuement en obstruant les narines et en fermant la bouche peut multiplier la pression de 5 à 24 fois par rapport à un éternuement ordinaire[17].
-Les complications sont variées, pouvant siéger au niveau intracrânien, intrathoracique, oculaire, ainsi qu’au niveau du larynx ou des oreilles. Elles peuvent également être vasculaires. Ont été décrits la survenue d'une thrombose veineuse cérébrale (variété d'AVC), fracture du cartilage thyroïde (rupture de la "pomme d'Adam"), emphysème orbitaire (pénétration d’air dans les tissus de l’orbite), présence d’air intracrânien (pneumocéphalie), présence d’air dans l’oreille interne (pneumolabyrinthe), chylothorax (par rupture du canal thoracique qui véhicule la lymphe), déchirure du diaphragme et les muscles intercostaux, dissection aortique (fissure de la paroi interne de l'aorte)[17]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs cas cliniques ont été rapportés dans la littérature médicale qui montrent qu’il peut être dangereux de réprimer un éternuement. 
+Plusieurs études ont par ailleurs montré que la pression est d’autant plus élevée que l’on cherche à résister à l’expulsion de l’air lors d’un effort d'éternuement. Empêcher un éternuement en obstruant les narines et en fermant la bouche peut multiplier la pression de 5 à 24 fois par rapport à un éternuement ordinaire.
+Les complications sont variées, pouvant siéger au niveau intracrânien, intrathoracique, oculaire, ainsi qu’au niveau du larynx ou des oreilles. Elles peuvent également être vasculaires. Ont été décrits la survenue d'une thrombose veineuse cérébrale (variété d'AVC), fracture du cartilage thyroïde (rupture de la "pomme d'Adam"), emphysème orbitaire (pénétration d’air dans les tissus de l’orbite), présence d’air intracrânien (pneumocéphalie), présence d’air dans l’oreille interne (pneumolabyrinthe), chylothorax (par rupture du canal thoracique qui véhicule la lymphe), déchirure du diaphragme et les muscles intercostaux, dissection aortique (fissure de la paroi interne de l'aorte). 
 </t>
         </is>
       </c>
@@ -700,7 +724,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89ternuement</t>
+          <t>Éternuement</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -720,18 +744,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Littérature enfantine
-Monsieur Atchoum (Mister Sneeze) est un des personnages de la série de livres pour enfants britannique Monsieur Madame (Mr. Men en version originale), écrite et dessinée par Roger Hargreaves (1935-1988).
-Tchoum ! est un livre jeu pour enfants créé et illustré par Virginie Morgand et dans lequel chaque animal (ours, renard, etc...) se retrouve en situation en difficile à la suite d'un éternuement intempestif  (ISBN 9782352892236)[18].
-Bande dessinée
-Le petit Sammy éternue (anglais : Little Sammy Sneeze) est une bande dessinée humoristique américaine hebdomadaire de Winsor McCay publiée du 24 juillet 1904 au 9 décembre 1906 dans le New York Herald. dans laquelle chaque histoire montre un éternuement du jeune Sammy et les conséquences dévastatrices qui en découlent.
-Benoît Brisefer, héros de la série éponyme, créée en 1960 par le dessinateur belge Peyo, est un petit garçon d'une force surhumaine qu'il perd chaque fois qu'il est enrhumé, le début de cette affection étant généralement marqué par un éternuement[19].
-Cinéma
-L'Éternuement de Fred Ott (Edison Kinetoscopic Record of a Sneeze ou Fred Ott's Sneeze) est un film américain réalisé en 1894 par William K.L. Dickson, avec Fred Ott ne dure que quelques secondes. Il est considéré comme un des premiers films de l'histoire du cinéma enregistré par le procédé Edison, mais il est en fait le 19e film réalisé par ces studios[20].
-Atchoum  (anglais :Sneezy) est un des sept nains du dessin animé Blanche-Neige et les Sept Nains qui présente, comme son nom l'indique, la particularité d'éternuer tout le temps.
-Dans le film Les Pirates du métro (The Taking of Pelham One Two Three) est un film américain réalisé par Joseph Sargent sorti en 1974, le personnage de Monsieur Vert (joué par Martin Balsam) a la particularité d'éternuer assez souvent ce qui causera sa perte[21].
-Dans le film La Vengeance du serpent à plumes, réalisé par Gérard Oury et  sorti en 1984, Philippe Khorsand est un terroriste allergique aux forces de l'ordre qui éternue à chaque fois qu'un policier est dans les parages[22].
-</t>
+          <t>Littérature enfantine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Monsieur Atchoum (Mister Sneeze) est un des personnages de la série de livres pour enfants britannique Monsieur Madame (Mr. Men en version originale), écrite et dessinée par Roger Hargreaves (1935-1988).
+Tchoum ! est un livre jeu pour enfants créé et illustré par Virginie Morgand et dans lequel chaque animal (ours, renard, etc...) se retrouve en situation en difficile à la suite d'un éternuement intempestif  (ISBN 9782352892236).</t>
         </is>
       </c>
     </row>
@@ -741,7 +761,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>%C3%89ternuement</t>
+          <t>Éternuement</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -756,27 +776,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dans la culture populaire</t>
+          <t>Dans les arts</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traditions populaires
-Tradition antique
-Chez les grecs anciens, qui voyaient facilement des présages dans le moindre événement, l'éternuement inexpliqué peut être perçu comme un signe des dieux[23]. 
-Durant l'époque romaine, l'expression d'usage était: « Que Jupiter te conserve », transformée par les chrétiens en « Que Dieu vous bénisse » car éternuer était de bon ou mauvais augure, selon les circonstances[24].
-Ainsi, dans le chant XVII de l'Odyssée, Homère écrit : « Elle parla ainsi, et Télémaque éternua très fortement, et toute la maison en retentit. Et Pénélope se mit à rire, et, aussitôt, elle dit à Eumée ces paroles ailées : — Va ! Appelle cet Étranger devant moi. Ne vois-tu pas que mon fils a éternué comme j’achevais de parler ? Que la mort de tous les Prétendants s’accomplisse ainsi, et que nul d’entre eux n’évite la mort ! ».
-Tradition musulmane
-Chez les musulmans, la personne qui éternue doit dire : « El Hamdouli'Allah ( "Louange à Dieu") », Si une personne l'a entendu dire cette phrase, il doit alors lui répondre : « Rahimaka Allah »,  qui signifie « Dieu te protège »[25],[26]. Enfin, celui qui a eternué doit répondre « Yahdîkum Allah wa Yuslihu Bâlakum », qui signifie « que Dieu vous guide vers le bon chemin et dissipe vos soucis »[27].
-Tradition occidentale
-Selon le Dictionnaire historique de la langue française, l’expression « À vos souhaits », formule familière de politesse adressée à quelqu’un qui éternue. Cette tradition serait apparue en français vers 1835[28], mais elle serait cependant plus ancienne.
-Pour les mêmes raisons, un anglophone va déclarer « God bless you » (Dieu vous bénisse) et un hispanophone va lancer « Jésus »[29].
-Idées reçues
-Il serait impossible d'éternuer les yeux ouverts. En réalité, la science n'est pas aussi catégorique sur le sujet et il semble que ce réflexe puisse être contré par certaines personnes[30]. Et contrairement à une autre idée reçue, il ne s'agirait pas d'empêcher que les yeux soient éjectés de leur orbite sous l'effet de la pression, ce qui n'est pas possible[31], mais de protéger l'organisme de corps étrangers susceptibles d'entrer par les yeux.
-De même, d'autres phénomènes, telles les flatulences, restent possibles lors d'un éternuement, contrairement à certaines idées reçues[réf. nécessaire].
-Farces et attrapes
-Comme le poil à gratter, la poudre à éternuer est un produit irritant les muqueuses nasales conçu pour diffuser rapidement dans l'air ambiant et provoquer l'éternuement des personnes qui le respirent, habituellement pour leur faire une farce.
-</t>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le petit Sammy éternue (anglais : Little Sammy Sneeze) est une bande dessinée humoristique américaine hebdomadaire de Winsor McCay publiée du 24 juillet 1904 au 9 décembre 1906 dans le New York Herald. dans laquelle chaque histoire montre un éternuement du jeune Sammy et les conséquences dévastatrices qui en découlent.
+Benoît Brisefer, héros de la série éponyme, créée en 1960 par le dessinateur belge Peyo, est un petit garçon d'une force surhumaine qu'il perd chaque fois qu'il est enrhumé, le début de cette affection étant généralement marqué par un éternuement.</t>
         </is>
       </c>
     </row>
@@ -786,7 +798,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>%C3%89ternuement</t>
+          <t>Éternuement</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -801,18 +813,366 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Dans les arts</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Éternuement de Fred Ott (Edison Kinetoscopic Record of a Sneeze ou Fred Ott's Sneeze) est un film américain réalisé en 1894 par William K.L. Dickson, avec Fred Ott ne dure que quelques secondes. Il est considéré comme un des premiers films de l'histoire du cinéma enregistré par le procédé Edison, mais il est en fait le 19e film réalisé par ces studios.
+Atchoum  (anglais :Sneezy) est un des sept nains du dessin animé Blanche-Neige et les Sept Nains qui présente, comme son nom l'indique, la particularité d'éternuer tout le temps.
+Dans le film Les Pirates du métro (The Taking of Pelham One Two Three) est un film américain réalisé par Joseph Sargent sorti en 1974, le personnage de Monsieur Vert (joué par Martin Balsam) a la particularité d'éternuer assez souvent ce qui causera sa perte.
+Dans le film La Vengeance du serpent à plumes, réalisé par Gérard Oury et  sorti en 1984, Philippe Khorsand est un terroriste allergique aux forces de l'ordre qui éternue à chaque fois qu'un policier est dans les parages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Éternuement</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ternuement</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traditions populaires</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tradition antique</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les grecs anciens, qui voyaient facilement des présages dans le moindre événement, l'éternuement inexpliqué peut être perçu comme un signe des dieux. 
+Durant l'époque romaine, l'expression d'usage était: « Que Jupiter te conserve », transformée par les chrétiens en « Que Dieu vous bénisse » car éternuer était de bon ou mauvais augure, selon les circonstances.
+Ainsi, dans le chant XVII de l'Odyssée, Homère écrit : « Elle parla ainsi, et Télémaque éternua très fortement, et toute la maison en retentit. Et Pénélope se mit à rire, et, aussitôt, elle dit à Eumée ces paroles ailées : — Va ! Appelle cet Étranger devant moi. Ne vois-tu pas que mon fils a éternué comme j’achevais de parler ? Que la mort de tous les Prétendants s’accomplisse ainsi, et que nul d’entre eux n’évite la mort ! ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Éternuement</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ternuement</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Traditions populaires</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tradition musulmane</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les musulmans, la personne qui éternue doit dire : « El Hamdouli'Allah ( "Louange à Dieu") », Si une personne l'a entendu dire cette phrase, il doit alors lui répondre : « Rahimaka Allah »,  qui signifie « Dieu te protège »,. Enfin, celui qui a eternué doit répondre « Yahdîkum Allah wa Yuslihu Bâlakum », qui signifie « que Dieu vous guide vers le bon chemin et dissipe vos soucis ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Éternuement</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ternuement</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Traditions populaires</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tradition occidentale</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Dictionnaire historique de la langue française, l’expression « À vos souhaits », formule familière de politesse adressée à quelqu’un qui éternue. Cette tradition serait apparue en français vers 1835, mais elle serait cependant plus ancienne.
+Pour les mêmes raisons, un anglophone va déclarer « God bless you » (Dieu vous bénisse) et un hispanophone va lancer « Jésus ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Éternuement</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ternuement</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Idées reçues</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il serait impossible d'éternuer les yeux ouverts. En réalité, la science n'est pas aussi catégorique sur le sujet et il semble que ce réflexe puisse être contré par certaines personnes. Et contrairement à une autre idée reçue, il ne s'agirait pas d'empêcher que les yeux soient éjectés de leur orbite sous l'effet de la pression, ce qui n'est pas possible, mais de protéger l'organisme de corps étrangers susceptibles d'entrer par les yeux.
+De même, d'autres phénomènes, telles les flatulences, restent possibles lors d'un éternuement, contrairement à certaines idées reçues[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Éternuement</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ternuement</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Farces et attrapes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le poil à gratter, la poudre à éternuer est un produit irritant les muqueuses nasales conçu pour diffuser rapidement dans l'air ambiant et provoquer l'éternuement des personnes qui le respirent, habituellement pour leur faire une farce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Éternuement</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ternuement</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Dans le monde animal</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'instar de l'être humain, ce réflexe inné peut s'observer dans le monde animal (chien, cheval...)[32] et ne se limite pas aux seuls mammifères. 
-La coquille Saint-Jacques
-On peut notamment observer chez la coquille Saint-Jacques, tout comme beaucoup d’invertébrés, l'action d'un bruit involontaire lorsqu'elle expulse les petites particules et divers excréments qui la gênent à l’intérieur de sa coquille et ne cherche pas à transmettre un message à ses congénères. Cette observation permet de définir cette action comme un éternuement. Les variations acoustiques de ce comportement permettent de définir la nature des éléments filtrés ; et ses enregistrements permettent de surveiller les changements environnementaux par des moyens non intrusifs[33],[34].
-L'éternuement inversé
-L'éternuement inversé (ou « l'éternuement à l'envers », « rétroéternuement »), observés chez certains animaux domestiques et plus particulièrement chez le chien se présente sous la forme de crises impressionnantes, pendant lesquelles le chien inspire par le nez, la gueule fermée et cou tendu, avec un ronflement intense évoquant le grognement du cochon. L'origine de ce comportement est inconnu[35] même si certains spécialistes évoquent la présence d’un corps étranger souvent d’origine végétale, une tumeur, polypes voire la présence de parasites au fond du pharynx[36].
-Le Rhinopithèque de Stryker
-Le Rhinopithèque de Stryker est surnommé le « singe qui éternue » : cela vient du fait qu'en temps de pluie, l'animal est beaucoup plus sensible à l'humidité en raison de l'absence de nez[37].
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar de l'être humain, ce réflexe inné peut s'observer dans le monde animal (chien, cheval...) et ne se limite pas aux seuls mammifères. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Éternuement</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ternuement</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dans le monde animal</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>La coquille Saint-Jacques</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut notamment observer chez la coquille Saint-Jacques, tout comme beaucoup d’invertébrés, l'action d'un bruit involontaire lorsqu'elle expulse les petites particules et divers excréments qui la gênent à l’intérieur de sa coquille et ne cherche pas à transmettre un message à ses congénères. Cette observation permet de définir cette action comme un éternuement. Les variations acoustiques de ce comportement permettent de définir la nature des éléments filtrés ; et ses enregistrements permettent de surveiller les changements environnementaux par des moyens non intrusifs,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Éternuement</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ternuement</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dans le monde animal</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L'éternuement inversé</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'éternuement inversé (ou « l'éternuement à l'envers », « rétroéternuement »), observés chez certains animaux domestiques et plus particulièrement chez le chien se présente sous la forme de crises impressionnantes, pendant lesquelles le chien inspire par le nez, la gueule fermée et cou tendu, avec un ronflement intense évoquant le grognement du cochon. L'origine de ce comportement est inconnu même si certains spécialistes évoquent la présence d’un corps étranger souvent d’origine végétale, une tumeur, polypes voire la présence de parasites au fond du pharynx.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Éternuement</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ternuement</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Dans le monde animal</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Le Rhinopithèque de Stryker</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Rhinopithèque de Stryker est surnommé le « singe qui éternue » : cela vient du fait qu'en temps de pluie, l'animal est beaucoup plus sensible à l'humidité en raison de l'absence de nez.
 </t>
         </is>
       </c>
